--- a/точки-поставки.xlsx
+++ b/точки-поставки.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/точки-поставки.xlsx
+++ b/точки-поставки.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>756839391</v>
+        <v>679932318</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,27 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>T-23-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Стеклоткань средней плотности Т-23 (100) отрез 10 метров</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>679932318</v>
+        <v>696778574</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,27 +510,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T-23-10</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Стеклоткань средней плотности Т-23 (100) отрез 10 метров</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1428571428571428</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -539,22 +539,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.339285714285714</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>9.357142857142856</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="5">
@@ -577,18 +577,18 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>770456244</v>
+        <v>1574107163</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -597,27 +597,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AQ-H-3000</t>
+          <t>sc-bls15750V</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.7017651888341544</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2857142857142857</v>
+        <v>4.807060755336618</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1574107163</v>
+        <v>1594235812</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sc-bls15750V</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1594235812</v>
+        <v>770456244</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -655,27 +655,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>AQ-H-3000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>696778574</v>
+        <v>1225355776</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -684,22 +684,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>2.11347642505278</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>10.45390570021112</v>
       </c>
     </row>
     <row r="10">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3214285714285714</v>
+        <v>2.315886699507389</v>
       </c>
     </row>
     <row r="11">
@@ -751,18 +751,18 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.738095238095238</v>
+        <v>1.548909218859958</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>15.64285714285714</v>
+        <v>15.94018296973962</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>990330535</v>
+        <v>1363095178</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -771,12 +771,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TEPOLV-6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -786,12 +786,12 @@
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1363095178</v>
+        <v>990330535</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -800,12 +800,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TEPOLV-6</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -815,12 +815,12 @@
         <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>735729922</v>
+        <v>990330535</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -829,27 +829,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.03571428571428571</v>
+        <v>1.25</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1428571428571428</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>677981434</v>
+        <v>696780797</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -858,27 +858,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.071428571428572</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>678320094</v>
+        <v>696778824</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -887,27 +887,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>696778985</v>
+        <v>756839391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -916,22 +916,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="18">
@@ -954,18 +954,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.071428571428572</v>
+        <v>3.426929392446634</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>696778824</v>
+        <v>696778574</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>756839391</v>
+        <v>696778985</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1003,27 +1003,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>990330535</v>
+        <v>677981434</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.25</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>3.426929392446634</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>679839793</v>
+        <v>677953003</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1428571428571428</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>696778574</v>
+        <v>679839793</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1090,27 +1090,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F23" t="n">
         <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>677883754</v>
+        <v>677942539</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1119,27 +1119,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1900656814449918</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.760262725779967</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1225355776</v>
+        <v>678320094</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1148,27 +1148,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5476190476190476</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>2.19047619047619</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>677953003</v>
+        <v>1225355776</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1177,27 +1177,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0.5658866995073892</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>4.263546798029557</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>696780797</v>
+        <v>735729922</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1206,27 +1206,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F27" t="n">
         <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>677926124</v>
+        <v>756835534</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1235,22 +1235,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="29">
@@ -1279,12 +1279,12 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>677942539</v>
+        <v>1594235812</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1293,27 +1293,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2678571428571428</v>
+        <v>1.356732348111658</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>1.071428571428571</v>
+        <v>7.426929392446632</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1594235812</v>
+        <v>677883754</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1322,27 +1322,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.017857142857143</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F31" t="n">
         <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>8.071428571428571</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>756835534</v>
+        <v>677926124</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1351,27 +1351,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F32" t="n">
         <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>678344590</v>
+        <v>1742838765</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1380,27 +1380,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.03571428571428571</v>
+        <v>1.5</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1428571428571428</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1742838765</v>
+        <v>679839793</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1409,27 +1409,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.5</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F34" t="n">
         <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>677926124</v>
+        <v>696778574</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1438,27 +1438,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.5178571428571429</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>2.071428571428572</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>678360471</v>
+        <v>677981434</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1467,27 +1467,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F36" t="n">
         <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>677942539</v>
+        <v>678320094</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1496,27 +1496,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F37" t="n">
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>696778985</v>
+        <v>677883754</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1525,27 +1525,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1900656814449918</v>
       </c>
       <c r="F38" t="n">
         <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.760262725779967</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1225355776</v>
+        <v>696778985</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1554,27 +1554,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.8642857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>3.457142857142857</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>990330535</v>
+        <v>677953003</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1583,27 +1583,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="F40" t="n">
         <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>677883754</v>
+        <v>1225355776</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1612,27 +1612,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.7719622331691297</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>1.071428571428571</v>
+        <v>5.087848932676518</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>679839793</v>
+        <v>677942539</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1641,27 +1641,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2857142857142857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>696778574</v>
+        <v>990330535</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1670,27 +1670,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F43" t="n">
         <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>696778824</v>
+        <v>678344590</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1699,27 +1699,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F44" t="n">
         <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>1.071428571428571</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>696780797</v>
+        <v>678360471</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1728,27 +1728,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1428571428571428</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>678320094</v>
+        <v>696780797</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1757,27 +1757,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F46" t="n">
         <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>677981434</v>
+        <v>696778824</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1786,27 +1786,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.75</v>
+        <v>0.1900656814449918</v>
       </c>
       <c r="F47" t="n">
         <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2.760262725779967</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>677953003</v>
+        <v>677926124</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.75</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F48" t="n">
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>3.426929392446634</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>678366074</v>
+        <v>1364320919</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5714285714285712</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1364320919</v>
+        <v>678366074</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1873,27 +1873,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0.1067323481116585</v>
       </c>
       <c r="F50" t="n">
         <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>2.426929392446634</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>678412576</v>
+        <v>735729922</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1902,22 +1902,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0.1067323481116585</v>
       </c>
       <c r="F51" t="n">
         <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>2.426929392446634</v>
       </c>
     </row>
     <row r="52">
@@ -1946,12 +1946,12 @@
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>735729922</v>
+        <v>678412576</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1960,27 +1960,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5714285714285712</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>770446017</v>
+        <v>677988274</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1989,12 +1989,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AQ-H-1500</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2004,12 +2004,12 @@
         <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>677988274</v>
+        <v>770446017</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2018,12 +2018,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>AQ-H-1500</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2033,12 +2033,12 @@
         <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>955546493</v>
+        <v>678412576</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2047,27 +2047,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="F56" t="n">
         <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>2.678571428571428</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>678412576</v>
+        <v>677981434</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2076,51 +2076,51 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F57" t="n">
         <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>677883754</v>
+        <v>955546493</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ДОМОДЕДОВО_РФЦ</t>
+          <t>ГРИВНО_РФЦ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3801313628899836</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>1.142857142857143</v>
+        <v>3.900656814449918</v>
       </c>
     </row>
     <row r="59">
@@ -2143,18 +2143,18 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1067323481116585</v>
       </c>
       <c r="F59" t="n">
         <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5714285714285712</v>
+        <v>2.426929392446634</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>678360471</v>
+        <v>696778574</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2178,12 +2178,12 @@
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>677981434</v>
+        <v>677883754</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2192,27 +2192,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>0.2134646962233169</v>
       </c>
       <c r="F61" t="n">
         <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>12</v>
+        <v>2.853858784893267</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>756835534</v>
+        <v>678320094</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2221,27 +2221,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F62" t="n">
         <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1225355776</v>
+        <v>756835534</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2250,27 +2250,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2.75</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F63" t="n">
         <v>4</v>
       </c>
       <c r="G63" t="n">
-        <v>11</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>677926124</v>
+        <v>677883754</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2279,27 +2279,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>696778574</v>
+        <v>677981434</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2308,27 +2308,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>696778985</v>
+        <v>1225355776</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2337,27 +2337,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.75</v>
       </c>
       <c r="F66" t="n">
         <v>4</v>
       </c>
       <c r="G66" t="n">
-        <v>1.142857142857143</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>678320094</v>
+        <v>677942539</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2366,27 +2366,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.75</v>
       </c>
       <c r="F67" t="n">
         <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2857142857142857</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>677883754</v>
+        <v>677926124</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2395,22 +2395,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -2433,18 +2433,18 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F69" t="n">
         <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>677942539</v>
+        <v>696778985</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2453,56 +2453,56 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.75</v>
+        <v>0.2134646962233169</v>
       </c>
       <c r="F70" t="n">
         <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2.853858784893267</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>679839793</v>
+        <v>678360471</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
+          <t>ДОМОДЕДОВО_РФЦ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4642857142857142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1150051366</v>
+        <v>696780797</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2511,27 +2511,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sc-crp15750V</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Каменный ковер, покрытие из Крымской гальки (5-10 мм.)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F72" t="n">
         <v>13</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4642857142857142</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>678412576</v>
+        <v>677926124</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2540,27 +2540,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="F73" t="n">
         <v>13</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4642857142857142</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>696778574</v>
+        <v>756839133</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2569,27 +2569,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.25</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F74" t="n">
         <v>13</v>
       </c>
       <c r="G74" t="n">
-        <v>3.25</v>
+        <v>2.91256157635468</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>696780797</v>
+        <v>696778574</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2598,27 +2598,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="F75" t="n">
         <v>13</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4642857142857142</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>696778824</v>
+        <v>677981434</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2627,27 +2627,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.75</v>
       </c>
       <c r="F76" t="n">
         <v>13</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9285714285714285</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>677981434</v>
+        <v>679839793</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2656,27 +2656,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F77" t="n">
         <v>13</v>
       </c>
       <c r="G77" t="n">
-        <v>9.75</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>735663069</v>
+        <v>696778824</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2685,27 +2685,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F78" t="n">
         <v>13</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4642857142857142</v>
+        <v>2.91256157635468</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>677926124</v>
+        <v>1225355776</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2714,27 +2714,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>13</v>
       </c>
       <c r="G79" t="n">
-        <v>3.25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1225355776</v>
+        <v>735663069</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2743,27 +2743,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F80" t="n">
         <v>13</v>
       </c>
       <c r="G80" t="n">
-        <v>13</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>756839133</v>
+        <v>678412576</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2772,56 +2772,56 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F81" t="n">
         <v>13</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9285714285714285</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>696780797</v>
+        <v>1150051366</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ЖУКОВСКИЙ_РФЦ</t>
+          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>sc-crp15750V</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Каменный ковер, покрытие из Крымской гальки (5-10 мм.)</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07142857142857142</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>683599056</v>
+        <v>696778574</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2830,27 +2830,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="F83" t="n">
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07142857142857142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>766093308</v>
+        <v>678366074</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2859,27 +2859,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TS-1</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 1 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F84" t="n">
         <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07142857142857142</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>677988274</v>
+        <v>955546493</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.25</v>
+        <v>0.2134646962233169</v>
       </c>
       <c r="F85" t="n">
         <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>2.426929392446634</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>990330535</v>
+        <v>683599056</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2917,22 +2917,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TS-5</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F86" t="n">
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="87">
@@ -2955,18 +2955,18 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F87" t="n">
         <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>0.07142857142857142</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>696778985</v>
+        <v>696780797</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2975,27 +2975,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>677926124</v>
+        <v>677883754</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3004,27 +3004,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>678320094</v>
+        <v>677926124</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3033,27 +3033,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07142857142857142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>677883754</v>
+        <v>696778985</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3062,27 +3062,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="F91" t="n">
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>677883754</v>
+        <v>1225355776</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3091,22 +3091,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="F92" t="n">
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>6.333333333333334</v>
       </c>
     </row>
     <row r="93">
@@ -3135,12 +3135,12 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1225355776</v>
+        <v>677988274</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3149,27 +3149,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2.166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="F94" t="n">
         <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>4.333333333333334</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>735663069</v>
+        <v>756839391</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3178,27 +3178,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>0.07142857142857142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>678366074</v>
+        <v>677883754</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3207,27 +3207,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1428571428571428</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>955546493</v>
+        <v>696778824</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3236,27 +3236,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="F97" t="n">
         <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5714285714285714</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>696778824</v>
+        <v>678320094</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3265,143 +3265,143 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F98" t="n">
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>955551690</v>
+        <v>990330535</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ED-20-ETAL5</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.07142857142857142</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9285714285714285</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>955556464</v>
+        <v>766093308</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TS-5-teta500</t>
+          <t>TS-1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
+          <t>Эпоксидная смола модифицированная Техностар 1 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F100" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>13</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>955553282</v>
+        <v>735663069</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ED-20-ETAL2500</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F101" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4642857142857142</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>678412576</v>
+        <v>1742838765</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>КАЛИНИНГРАД_МРФЦ</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9285714285714285</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>677981434</v>
+        <v>955556464</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3410,80 +3410,80 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>TS-5-teta500</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
       </c>
       <c r="G103" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>688529966</v>
+        <v>677981434</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1071428571428571</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1225355776</v>
+        <v>955551690</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-ETAL5</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4.1</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G105" t="n">
-        <v>12.3</v>
+        <v>2.91256157635468</v>
       </c>
     </row>
     <row r="106">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3506,163 +3506,163 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F106" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1071428571428571</v>
+        <v>2.91256157635468</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>678356317</v>
+        <v>955553282</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>МИНСК_МПСЦ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>ED-20-ETAL2500</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.5175492610837439</v>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G107" t="n">
-        <v>1.047619047619048</v>
+        <v>8.728140394088671</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>677926124</v>
+        <v>688529966</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F108" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>2.678571428571428</v>
+        <v>2.105295566502463</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1225355776</v>
+        <v>678412576</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.011904761904762</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>5.05952380952381</v>
+        <v>2.105295566502463</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>756835534</v>
+        <v>1225355776</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.03571428571428571</v>
+        <v>4.1</v>
       </c>
       <c r="F110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1785714285714285</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>696778824</v>
+        <v>678356317</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>МИНСК_МПСЦ</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.625</v>
+        <v>0.2050492610837438</v>
       </c>
       <c r="F111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>3.125</v>
+        <v>2.820197044334975</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>677942539</v>
+        <v>696780797</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3671,27 +3671,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.375</v>
+        <v>1.023399014778325</v>
       </c>
       <c r="F112" t="n">
         <v>5</v>
       </c>
       <c r="G112" t="n">
-        <v>1.875</v>
+        <v>7.116995073891625</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>696780797</v>
+        <v>696778574</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3700,27 +3700,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1.517857142857143</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F113" t="n">
         <v>5</v>
       </c>
       <c r="G113" t="n">
-        <v>7.589285714285715</v>
+        <v>2.175492610837439</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>678360471</v>
+        <v>696778985</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3729,27 +3729,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F114" t="n">
         <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3571428571428571</v>
+        <v>3.783661740558292</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>696778985</v>
+        <v>756835534</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3758,27 +3758,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F115" t="n">
         <v>5</v>
       </c>
       <c r="G115" t="n">
-        <v>2.589285714285714</v>
+        <v>2.175492610837439</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>677883754</v>
+        <v>696778824</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3787,27 +3787,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>0.625</v>
       </c>
       <c r="F116" t="n">
         <v>5</v>
       </c>
       <c r="G116" t="n">
-        <v>10</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>677981434</v>
+        <v>678360471</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3816,27 +3816,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F117" t="n">
         <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>1.339285714285714</v>
+        <v>2.350985221674877</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>696778574</v>
+        <v>678320094</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3845,22 +3845,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F118" t="n">
         <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1785714285714285</v>
+        <v>2.175492610837439</v>
       </c>
     </row>
     <row r="119">
@@ -3883,18 +3883,18 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3571428571428571</v>
+        <v>2.350985221674877</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>677953003</v>
+        <v>677883754</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3903,27 +3903,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F120" t="n">
         <v>5</v>
       </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>990330535</v>
+        <v>677926124</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3932,27 +3932,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0.3801313628899836</v>
       </c>
       <c r="F121" t="n">
         <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>3.900656814449918</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>678320094</v>
+        <v>677981434</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3961,135 +3961,135 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1900656814449918</v>
       </c>
       <c r="F122" t="n">
         <v>5</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1785714285714285</v>
+        <v>2.950328407224959</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>677981434</v>
+        <v>677942539</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="F123" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>5.25</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1225355776</v>
+        <v>990330535</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
+        <v>5</v>
+      </c>
+      <c r="G124" t="n">
         <v>7</v>
-      </c>
-      <c r="G124" t="n">
-        <v>6.416666666666666</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>955553922</v>
+        <v>1225355776</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1.035714285714286</v>
+        <v>0.8882389162561577</v>
       </c>
       <c r="F125" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>7.250000000000002</v>
+        <v>6.441194581280788</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>696780797</v>
+        <v>677953003</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E126" t="n">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G126" t="n">
         <v>7</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>696778824</v>
+        <v>756839391</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4106,27 +4106,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F127" t="n">
         <v>7</v>
       </c>
       <c r="G127" t="n">
-        <v>0.25</v>
+        <v>2.245689655172414</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>770446017</v>
+        <v>677981434</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4135,12 +4135,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>AQ-H-1500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4150,12 +4150,12 @@
         <v>7</v>
       </c>
       <c r="G128" t="n">
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>677953003</v>
+        <v>679839793</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4179,12 +4179,12 @@
         <v>7</v>
       </c>
       <c r="G129" t="n">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>756835534</v>
+        <v>770446017</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4193,27 +4193,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>AQ-H-1500</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="F130" t="n">
         <v>7</v>
       </c>
       <c r="G130" t="n">
-        <v>0.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>677883754</v>
+        <v>756835534</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4222,27 +4222,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F131" t="n">
         <v>7</v>
       </c>
       <c r="G131" t="n">
-        <v>14</v>
+        <v>2.245689655172414</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>677883754</v>
+        <v>696780797</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4251,27 +4251,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.2678571428571428</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>7</v>
       </c>
       <c r="G132" t="n">
-        <v>1.875</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>678360471</v>
+        <v>677883754</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4280,27 +4280,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
         <v>7</v>
       </c>
       <c r="G133" t="n">
-        <v>1.75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>696778574</v>
+        <v>677883754</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4309,27 +4309,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1900656814449918</v>
       </c>
       <c r="F134" t="n">
         <v>7</v>
       </c>
       <c r="G134" t="n">
-        <v>0.25</v>
+        <v>3.330459770114943</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>756839391</v>
+        <v>677953003</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4338,27 +4338,27 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="F135" t="n">
         <v>7</v>
       </c>
       <c r="G135" t="n">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>679839793</v>
+        <v>1225355776</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4367,138 +4367,138 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.25</v>
+        <v>0.8081896551724138</v>
       </c>
       <c r="F136" t="n">
         <v>7</v>
       </c>
       <c r="G136" t="n">
-        <v>1.75</v>
+        <v>7.657327586206897</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>678034901</v>
+        <v>696778824</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>AQgel300</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.25</v>
+        <v>0.05233990147783251</v>
       </c>
       <c r="F137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>2.366379310344827</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1225355776</v>
+        <v>678360471</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F138" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>696780797</v>
+        <v>955553922</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.7134646962233169</v>
       </c>
       <c r="F139" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G139" t="n">
-        <v>0.2142857142857143</v>
+        <v>6.994252873563218</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>678412576</v>
+        <v>696778574</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F140" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G140" t="n">
-        <v>0.2142857142857143</v>
+        <v>2.245689655172414</v>
       </c>
     </row>
     <row r="141">
@@ -4521,796 +4521,796 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F141" t="n">
         <v>6</v>
       </c>
       <c r="G141" t="n">
-        <v>0.2142857142857143</v>
+        <v>2.210591133004926</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>955546493</v>
+        <v>735729922</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G142" t="n">
-        <v>1.035714285714286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1225355776</v>
+        <v>678034901</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQgel300</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.05</v>
+        <v>0.25</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G143" t="n">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>678344590</v>
+        <v>696780797</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G144" t="n">
-        <v>0.07142857142857142</v>
+        <v>2.210591133004926</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>678366074</v>
+        <v>678412576</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>2.210591133004926</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>678412576</v>
+        <v>1225355776</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="F146" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G146" t="n">
-        <v>0.4642857142857142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1225355776</v>
+        <v>678344590</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F147" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>13</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>678356317</v>
+        <v>955546493</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F148" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4642857142857142</v>
+        <v>2.713464696223317</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>735769060</v>
+        <v>696780797</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ETAL-2500</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Отвердитель Этал-45М 2500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F149" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>13</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>696778824</v>
+        <v>1225355776</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ОМСК_РФЦ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.03571428571428571</v>
+        <v>4.05</v>
       </c>
       <c r="F150" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G150" t="n">
-        <v>0.2857142857142857</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1225355776</v>
+        <v>678366074</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="F151" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>688529966</v>
+        <v>696778574</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1364320919</v>
+        <v>677981434</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F153" t="n">
         <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>955546493</v>
+        <v>678356317</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.375</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G154" t="n">
-        <v>0.75</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1363091992</v>
+        <v>1225355776</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>TEPOLV-1.5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1428571428571428</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>678356317</v>
+        <v>678412576</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07142857142857142</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>955556860</v>
+        <v>735769060</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>TS-1-teta100</t>
+          <t>ETAL-2500</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
+          <t>Отвердитель Этал-45М 2500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G157" t="n">
-        <v>0.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>756839391</v>
+        <v>696778824</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ОМСК_РФЦ</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>735663069</v>
+        <v>1225355776</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.03571428571428571</v>
+        <v>1.25</v>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1071428571428571</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>756839133</v>
+        <v>688529966</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F160" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>2.245689655172414</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>678412576</v>
+        <v>678356317</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G161" t="n">
-        <v>0.4285714285714284</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>678320094</v>
+        <v>1363091992</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>TEPOLV-1.5</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1071428571428571</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>688529966</v>
+        <v>1364320919</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G163" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1225355776</v>
+        <v>955546493</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2.69047619047619</v>
+        <v>0.375</v>
       </c>
       <c r="F164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>8.071428571428569</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>670494599</v>
+        <v>756839133</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ED-20-PEPA10</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F165" t="n">
         <v>3</v>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>756839133</v>
+        <v>735663069</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F166" t="n">
         <v>3</v>
       </c>
       <c r="G166" t="n">
-        <v>6</v>
+        <v>2.105295566502463</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>678366074</v>
+        <v>756839391</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
         <v>3</v>
       </c>
       <c r="G167" t="n">
-        <v>2.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>678412576</v>
+        <v>955556860</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ростов_на_Дону_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TS-1-teta100</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="F168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="169">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5333,216 +5333,216 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1403940886699507</v>
       </c>
       <c r="F169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07142857142857142</v>
+        <v>2.421182266009852</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>756839391</v>
+        <v>678320094</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07142857142857142</v>
+        <v>2.105295566502463</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1225355776</v>
+        <v>688529966</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1.083333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G171" t="n">
-        <v>2.166666666666666</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>955554865</v>
+        <v>1225355776</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.25</v>
+        <v>2.360309641097818</v>
       </c>
       <c r="F172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G172" t="n">
-        <v>0.5</v>
+        <v>9.080928923293454</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>955553922</v>
+        <v>756839133</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.07142857142857142</v>
+        <v>2</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1428571428571428</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>955546493</v>
+        <v>670494599</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>ED-20-PEPA10</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
         <v>3</v>
       </c>
       <c r="G174" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>756839391</v>
+        <v>678366074</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.75</v>
       </c>
       <c r="F175" t="n">
         <v>3</v>
       </c>
       <c r="G175" t="n">
-        <v>0.2142857142857143</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>678366074</v>
+        <v>678412576</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4285714285714284</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="177">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5565,274 +5565,274 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07142857142857142</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1225355776</v>
+        <v>677953003</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E178" t="n">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1594235812</v>
+        <v>955553922</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.5</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>677926124</v>
+        <v>677942539</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>955546493</v>
+        <v>756839133</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.5178571428571429</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181" t="n">
-        <v>0.5178571428571429</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>756838720</v>
+        <v>678412576</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>TETA-1000</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G182" t="n">
-        <v>0.03571428571428571</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1225355776</v>
+        <v>696778985</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2.333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>2.333333333333333</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>735729922</v>
+        <v>990330535</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>0.03571428571428571</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>735663069</v>
+        <v>1225355776</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.03571428571428571</v>
+        <v>1.75</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>0.03571428571428571</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1364320919</v>
+        <v>678274222</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>AQ300</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G186" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="187">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5855,332 +5855,332 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>955554865</v>
+        <v>679839793</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G188" t="n">
-        <v>0.03571428571428571</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>955553922</v>
+        <v>756835534</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G189" t="n">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>678366074</v>
+        <v>677926124</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.07142857142857142</v>
+        <v>2</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G190" t="n">
-        <v>0.07142857142857142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>677988274</v>
+        <v>696778574</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>677953003</v>
+        <v>955554865</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>0.6666666666666666</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>677981434</v>
+        <v>677883754</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E193" t="n">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>678320094</v>
+        <v>1742838765</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.2678571428571428</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2678571428571428</v>
+        <v>4.333333333333334</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>677942539</v>
+        <v>678320094</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195" t="n">
-        <v>1.125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>677926124</v>
+        <v>955546493</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G196" t="n">
-        <v>0.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>679839793</v>
+        <v>678366074</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.1403940886699507</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2619047619047619</v>
+        <v>2.421182266009852</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>678366074</v>
+        <v>756839391</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G198" t="n">
-        <v>0.03571428571428571</v>
+        <v>2.210591133004926</v>
       </c>
     </row>
     <row r="199">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6203,767 +6203,767 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.125</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>2.125</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1742838765</v>
+        <v>1594235812</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>683599056</v>
+        <v>735729922</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>0.03571428571428571</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>756839133</v>
+        <v>677926124</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1607142857142857</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
         <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>756835534</v>
+        <v>990330535</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>677883754</v>
+        <v>677942539</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>735729922</v>
+        <v>696778824</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>735663069</v>
+        <v>677953003</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
       </c>
       <c r="G207" t="n">
-        <v>0.03571428571428571</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>955546493</v>
+        <v>696778985</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
         <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>0.375</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>990330535</v>
+        <v>756838720</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TETA-1000</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3.75</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>3.75</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>696778985</v>
+        <v>1225355776</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.07142857142857142</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>0.07142857142857142</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>696780797</v>
+        <v>756835534</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
         <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>0.03571428571428571</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1364320919</v>
+        <v>955546493</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.25</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>0.25</v>
+        <v>2.356732348111658</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>696778824</v>
+        <v>677883754</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>0.375</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>696778574</v>
+        <v>735729922</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.25</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>0.25</v>
+        <v>2.356732348111658</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>678366074</v>
+        <v>1742838765</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
         <v>3</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>955546493</v>
+        <v>677926124</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.07142857142857142</v>
+        <v>2</v>
       </c>
       <c r="F216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2142857142857143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>677883754</v>
+        <v>735663069</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F217" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1785714285714285</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1225355776</v>
+        <v>677981434</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>4.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F218" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>21.66666666666666</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>677883754</v>
+        <v>677926124</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>677926124</v>
+        <v>1364320919</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F220" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>1.339285714285714</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>756839133</v>
+        <v>677883754</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="F221" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G221" t="n">
-        <v>0.3571428571428571</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>677981434</v>
+        <v>955554865</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>5</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>678356317</v>
+        <v>678366074</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F223" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>5</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>679839793</v>
+        <v>955553922</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="F224" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1785714285714285</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>696778574</v>
+        <v>696778985</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="F225" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1785714285714285</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6986,332 +6986,1550 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.75</v>
       </c>
       <c r="F226" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>0.3571428571428571</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>696778985</v>
+        <v>696780797</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F227" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>5</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>696780797</v>
+        <v>756835534</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.03571428571428571</v>
+        <v>2</v>
       </c>
       <c r="F228" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1785714285714285</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>677953003</v>
+        <v>756839391</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>677981434</v>
+        <v>1742838765</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F230" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1225355776</v>
+        <v>678366074</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1.482142857142857</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F231" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>63.73214285714285</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>756839133</v>
+        <v>677942539</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>2</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="F232" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>86</v>
+        <v>2.958333333333333</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>677883754</v>
+        <v>677942539</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для столешниц, слэбов и объемных заливок MONOLIT 3 кг (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="F233" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>10.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>735729922</v>
+        <v>696778824</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F234" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>21.5</v>
+        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>756835534</v>
+        <v>677953003</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>10.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>990330535</v>
+        <v>756835534</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.9910714285714286</v>
+        <v>1.25</v>
       </c>
       <c r="F236" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>42.61607142857143</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>2.928571428571428</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="n">
+        <v>4.928571428571428</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>696778985</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>EPO3D-1.5</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0.3598111658456486</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>2.359811165845648</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>677988274</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA-5</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1364320919</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>TEPOLV-15</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>990330535</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>naborgalaxy</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
         <v>756839391</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>ED-20-TETA5</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="n">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>696778574</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>EPO3D-7,5</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>678320094</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>AQ3000</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>0.6339285714285714</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="n">
+        <v>2.633928571428571</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>683599056</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>TS-5</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>2.035098522167488</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>696780797</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>EPO3D-15</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>2.035098522167488</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>679839793</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>AQ6000</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G250" t="n">
+        <v>2.261904761904762</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>955546493</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>TS-1-pepa100</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="n">
+        <v>2.583333333333333</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>735663069</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>PEPA-1000</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>2.035098522167488</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>735729922</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>PEPA-500</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>0.1723111658456486</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1</v>
+      </c>
+      <c r="G254" t="n">
+        <v>2.172311165845648</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>677926124</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>MN1500</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>678366074</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ТВЕРЬ_РФЦ</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>EPIC750</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+      <c r="F256" t="n">
+        <v>3</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2.210591133004926</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>955546493</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ТВЕРЬ_РФЦ</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>TS-1-pepa100</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+      <c r="F257" t="n">
+        <v>3</v>
+      </c>
+      <c r="G257" t="n">
+        <v>2.210591133004926</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>756839391</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>ТВЕРЬ_РФЦ</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>ED-20-TETA5</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3</v>
+      </c>
+      <c r="G258" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>696778824</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>EPO3D-750</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+      <c r="F259" t="n">
+        <v>5</v>
+      </c>
+      <c r="G259" t="n">
+        <v>2.350985221674877</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>696780797</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>EPO3D-15</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F260" t="n">
+        <v>5</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2.175492610837439</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>679839793</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>AQ6000</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F261" t="n">
+        <v>5</v>
+      </c>
+      <c r="G261" t="n">
+        <v>2.175492610837439</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>678356317</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>EPIC1500</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>5</v>
+      </c>
+      <c r="G262" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F263" t="n">
+        <v>5</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2.175492610837439</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>677926124</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>MN1500</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0.1900656814449918</v>
+      </c>
+      <c r="F264" t="n">
+        <v>5</v>
+      </c>
+      <c r="G264" t="n">
+        <v>2.950328407224959</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>2</v>
+      </c>
+      <c r="F265" t="n">
+        <v>5</v>
+      </c>
+      <c r="G265" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>696778985</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>EPO3D-1.5</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>5</v>
+      </c>
+      <c r="G266" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>5</v>
+      </c>
+      <c r="G267" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F268" t="n">
+        <v>5</v>
+      </c>
+      <c r="G268" t="n">
+        <v>23.66666666666666</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>696778574</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>EPO3D-7,5</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F269" t="n">
+        <v>5</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2.175492610837439</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>677953003</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>MN15000</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>5</v>
+      </c>
+      <c r="G270" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+      <c r="F271" t="n">
+        <v>5</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2.350985221674877</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>43</v>
+      </c>
+      <c r="G272" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>990330535</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>naborgalaxy</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0.8342364532019705</v>
+      </c>
+      <c r="F273" t="n">
+        <v>43</v>
+      </c>
+      <c r="G273" t="n">
+        <v>37.87216748768473</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>1.461576354679803</v>
+      </c>
+      <c r="F274" t="n">
+        <v>43</v>
+      </c>
+      <c r="G274" t="n">
+        <v>64.84778325123153</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>756835534</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>ED-20-TETA1</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F275" t="n">
+        <v>43</v>
+      </c>
+      <c r="G275" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>735729922</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>PEPA-500</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F276" t="n">
+        <v>43</v>
+      </c>
+      <c r="G276" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F277" t="n">
+        <v>43</v>
+      </c>
+      <c r="G277" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>2</v>
+      </c>
+      <c r="F278" t="n">
+        <v>43</v>
+      </c>
+      <c r="G278" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>756839391</v>
+      </c>
+      <c r="B279" t="inlineStr">
         <is>
           <t>ХОРУГВИНО_РФЦ</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>ED-20-TETA5</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
-      <c r="E237" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="F237" t="n">
+      <c r="E279" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+      <c r="F279" t="n">
         <v>2</v>
       </c>
-      <c r="G237" t="n">
-        <v>0.1428571428571428</v>
+      <c r="G279" t="n">
+        <v>2.140394088669951</v>
       </c>
     </row>
   </sheetData>

--- a/точки-поставки.xlsx
+++ b/точки-поставки.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G279"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>696778574</v>
+        <v>1574107163</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,27 +510,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>sc-bls15750V</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0.7017651888341544</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4.807060755336618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>756839391</v>
+        <v>1594235812</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -539,12 +539,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -559,7 +559,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>735729922</v>
+        <v>696778574</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -568,27 +568,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.280788177339901</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1574107163</v>
+        <v>756839391</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -597,27 +597,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sc-bls15750V</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7017651888341544</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4.807060755336618</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1594235812</v>
+        <v>770456244</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>AQ-H-3000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.140394088669951</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>770456244</v>
+        <v>735729922</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -655,12 +655,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AQ-H-3000</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -704,7 +704,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>756839133</v>
+        <v>1363095178</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>TEPOLV-6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.315886699507389</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="11">
@@ -762,7 +762,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1363095178</v>
+        <v>756839133</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -771,22 +771,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TEPOLV-6</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F12" t="n">
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>4.25</v>
+        <v>2.315886699507389</v>
       </c>
     </row>
     <row r="13">
@@ -820,7 +820,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>990330535</v>
+        <v>735729922</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -829,22 +829,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.25</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="15">
@@ -878,7 +878,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>696778824</v>
+        <v>677953003</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -887,27 +887,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>2.280788177339901</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>756839391</v>
+        <v>677981434</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -916,27 +916,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.140394088669951</v>
+        <v>3.426929392446634</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>678360471</v>
+        <v>677942539</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -945,27 +945,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.1900656814449918</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>3.426929392446634</v>
+        <v>2.760262725779967</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>696778574</v>
+        <v>677883754</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.140394088669951</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>696778985</v>
+        <v>1594235812</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1003,27 +1003,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.07019704433497537</v>
+        <v>1.356732348111658</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.280788177339901</v>
+        <v>7.426929392446632</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>677981434</v>
+        <v>756835534</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>3.426929392446634</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>677953003</v>
+        <v>696778985</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>679839793</v>
+        <v>756839391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1090,12 +1090,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1110,7 +1110,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>677942539</v>
+        <v>696778574</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1119,27 +1119,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>2.760262725779967</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>678320094</v>
+        <v>679839793</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1148,12 +1148,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1225355776</v>
+        <v>677926124</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1177,27 +1177,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5658866995073892</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>4.263546798029557</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>735729922</v>
+        <v>1742838765</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1206,27 +1206,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.25</v>
       </c>
       <c r="F27" t="n">
         <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>2.140394088669951</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>756835534</v>
+        <v>990330535</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1235,27 +1235,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.25</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>2.140394088669951</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1742838765</v>
+        <v>696778824</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1264,27 +1264,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.25</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1594235812</v>
+        <v>678360471</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1293,27 +1293,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.356732348111658</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>7.426929392446632</v>
+        <v>3.426929392446634</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1322,27 +1322,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F31" t="n">
         <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>2.280788177339901</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>677926124</v>
+        <v>1225355776</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1351,27 +1351,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5658866995073892</v>
       </c>
       <c r="F32" t="n">
         <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>2.280788177339901</v>
+        <v>4.263546798029557</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1742838765</v>
+        <v>678320094</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1380,27 +1380,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.5</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>679839793</v>
+        <v>990330535</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1409,22 +1409,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.07019704433497537</v>
+        <v>2.5</v>
       </c>
       <c r="F34" t="n">
         <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>2.280788177339901</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1487,7 +1487,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>678320094</v>
+        <v>679839793</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1496,27 +1496,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F37" t="n">
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>2.140394088669951</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>677883754</v>
+        <v>678344590</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1525,27 +1525,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F38" t="n">
         <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>2.760262725779967</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>696778985</v>
+        <v>696778824</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1554,22 +1554,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.1900656814449918</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>2.280788177339901</v>
+        <v>2.760262725779967</v>
       </c>
     </row>
     <row r="40">
@@ -1632,7 +1632,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>677942539</v>
+        <v>678360471</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1661,7 +1661,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>990330535</v>
+        <v>696778985</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1670,27 +1670,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.5</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F43" t="n">
         <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>12</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>678344590</v>
+        <v>696780797</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1719,7 +1719,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>678360471</v>
+        <v>677883754</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1728,27 +1728,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0.1900656814449918</v>
       </c>
       <c r="F45" t="n">
         <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>2.760262725779967</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>696780797</v>
+        <v>1742838765</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1757,27 +1757,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.5</v>
       </c>
       <c r="F46" t="n">
         <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>2.140394088669951</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>696778824</v>
+        <v>677926124</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1786,27 +1786,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F47" t="n">
         <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>2.760262725779967</v>
+        <v>3.426929392446634</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>677926124</v>
+        <v>677942539</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.3567323481116584</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>3.426929392446634</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1364320919</v>
+        <v>678412576</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1893,7 +1893,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>735729922</v>
+        <v>1225355776</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1902,27 +1902,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1067323481116585</v>
+        <v>1.5</v>
       </c>
       <c r="F51" t="n">
         <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>2.426929392446634</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1225355776</v>
+        <v>735729922</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1931,27 +1931,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.5</v>
+        <v>0.1067323481116585</v>
       </c>
       <c r="F52" t="n">
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>8</v>
+        <v>2.426929392446634</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>678412576</v>
+        <v>1364320919</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1960,12 +1960,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1980,7 +1980,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>677988274</v>
+        <v>955546493</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1989,27 +1989,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.5</v>
+        <v>0.3801313628899836</v>
       </c>
       <c r="F54" t="n">
         <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>4.5</v>
+        <v>3.900656814449918</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>770446017</v>
+        <v>677981434</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2018,22 +2018,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AQ-H-1500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F55" t="n">
         <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>4.5</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="56">
@@ -2067,7 +2067,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>677981434</v>
+        <v>770446017</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2076,27 +2076,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>AQ-H-1500</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F57" t="n">
         <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>3.666666666666667</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>955546493</v>
+        <v>677988274</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2105,27 +2105,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.3801313628899836</v>
+        <v>0.5</v>
       </c>
       <c r="F58" t="n">
         <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>3.900656814449918</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>696778824</v>
+        <v>696778574</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2134,27 +2134,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1067323481116585</v>
+        <v>0.5</v>
       </c>
       <c r="F59" t="n">
         <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>2.426929392446634</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>696778574</v>
+        <v>696778824</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2163,27 +2163,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.5</v>
+        <v>0.1067323481116585</v>
       </c>
       <c r="F60" t="n">
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>2.426929392446634</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2192,27 +2192,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2134646962233169</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F61" t="n">
         <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>2.853858784893267</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>678320094</v>
+        <v>678360471</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2221,27 +2221,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5</v>
       </c>
       <c r="F62" t="n">
         <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>2.280788177339901</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>756835534</v>
+        <v>677883754</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2250,27 +2250,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.07019704433497537</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>4</v>
       </c>
       <c r="G63" t="n">
-        <v>2.280788177339901</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>677883754</v>
+        <v>756835534</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2279,27 +2279,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F64" t="n">
         <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>14</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>677981434</v>
+        <v>677926124</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2308,22 +2308,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -2357,7 +2357,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>677942539</v>
+        <v>677981434</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2366,27 +2366,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>677926124</v>
+        <v>677942539</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2395,22 +2395,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F68" t="n">
         <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2473,7 +2473,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>678360471</v>
+        <v>677883754</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2482,27 +2482,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.5</v>
+        <v>0.2134646962233169</v>
       </c>
       <c r="F71" t="n">
         <v>4</v>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>2.853858784893267</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>696780797</v>
+        <v>735663069</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2511,12 +2511,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2531,7 +2531,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>677926124</v>
+        <v>696778574</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2540,12 +2540,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2560,7 +2560,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>756839133</v>
+        <v>677981434</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2569,27 +2569,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.75</v>
       </c>
       <c r="F74" t="n">
         <v>13</v>
       </c>
       <c r="G74" t="n">
-        <v>2.91256157635468</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>696778574</v>
+        <v>756839133</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2598,27 +2598,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.25</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F75" t="n">
         <v>13</v>
       </c>
       <c r="G75" t="n">
-        <v>5.25</v>
+        <v>2.91256157635468</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>677981434</v>
+        <v>696778824</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2627,27 +2627,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.75</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F76" t="n">
         <v>13</v>
       </c>
       <c r="G76" t="n">
-        <v>11.75</v>
+        <v>2.91256157635468</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>679839793</v>
+        <v>1150051366</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>sc-crp15750V</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Каменный ковер, покрытие из Крымской гальки (5-10 мм.)</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2676,7 +2676,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>696778824</v>
+        <v>678412576</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2685,27 +2685,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F78" t="n">
         <v>13</v>
       </c>
       <c r="G78" t="n">
-        <v>2.91256157635468</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2714,27 +2714,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F79" t="n">
         <v>13</v>
       </c>
       <c r="G79" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>735663069</v>
+        <v>1225355776</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2743,27 +2743,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>13</v>
       </c>
       <c r="G80" t="n">
-        <v>2.45628078817734</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>678412576</v>
+        <v>677926124</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2772,27 +2772,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
       <c r="F81" t="n">
         <v>13</v>
       </c>
       <c r="G81" t="n">
-        <v>2.45628078817734</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1150051366</v>
+        <v>696780797</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2801,12 +2801,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>sc-crp15750V</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Каменный ковер, покрытие из Крымской гальки (5-10 мм.)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2821,36 +2821,36 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>696778574</v>
+        <v>679839793</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ЖУКОВСКИЙ_РФЦ</t>
+          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>678366074</v>
+        <v>735729922</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2859,27 +2859,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.25</v>
       </c>
       <c r="F84" t="n">
         <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>2.140394088669951</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>955546493</v>
+        <v>677883754</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2134646962233169</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>2.426929392446634</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>683599056</v>
+        <v>677883754</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2917,27 +2917,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.03509852216748768</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>2.070197044334976</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>679839793</v>
+        <v>683599056</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2946,12 +2946,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>TS-5</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2966,7 +2966,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>696780797</v>
+        <v>735663069</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2975,12 +2975,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2995,7 +2995,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>677883754</v>
+        <v>696778574</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3004,27 +3004,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F89" t="n">
         <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>677926124</v>
+        <v>678366074</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3033,27 +3033,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F90" t="n">
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>696778985</v>
+        <v>679839793</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3062,27 +3062,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F91" t="n">
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>3.5</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1225355776</v>
+        <v>696780797</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3091,22 +3091,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.166666666666667</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F92" t="n">
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>6.333333333333334</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="93">
@@ -3140,7 +3140,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>677988274</v>
+        <v>955546493</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3149,27 +3149,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.25</v>
+        <v>0.2134646962233169</v>
       </c>
       <c r="F94" t="n">
         <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>2.426929392446634</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>756839391</v>
+        <v>1225355776</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3178,27 +3178,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>6.333333333333334</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>677883754</v>
+        <v>766093308</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3207,27 +3207,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>TS-1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола модифицированная Техностар 1 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F96" t="n">
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>696778824</v>
+        <v>756839391</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3236,27 +3236,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>678320094</v>
+        <v>696778985</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3265,27 +3265,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
       <c r="F98" t="n">
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>2.070197044334976</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>990330535</v>
+        <v>677926124</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3294,27 +3294,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>766093308</v>
+        <v>696778824</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3323,27 +3323,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TS-1</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 1 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>2.070197044334976</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>735663069</v>
+        <v>678320094</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3352,12 +3352,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3372,94 +3372,94 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1742838765</v>
+        <v>677988274</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>КАЛИНИНГРАД_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F102" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>14</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>955556464</v>
+        <v>990330535</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TS-5-teta500</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>677981434</v>
+        <v>1742838765</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>КАЛИНИНГРАД_МРФЦ</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>955551690</v>
+        <v>678412576</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3468,12 +3468,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ED-20-ETAL5</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3488,7 +3488,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>678412576</v>
+        <v>677981434</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3497,27 +3497,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5</v>
       </c>
       <c r="F106" t="n">
         <v>13</v>
       </c>
       <c r="G106" t="n">
-        <v>2.91256157635468</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>955553282</v>
+        <v>955551690</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3526,85 +3526,85 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ED-20-ETAL2500</t>
+          <t>ED-20-ETAL5</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.5175492610837439</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F107" t="n">
         <v>13</v>
       </c>
       <c r="G107" t="n">
-        <v>8.728140394088671</v>
+        <v>2.91256157635468</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>688529966</v>
+        <v>955553282</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>ED-20-ETAL2500</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.5175492610837439</v>
       </c>
       <c r="F108" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G108" t="n">
-        <v>2.105295566502463</v>
+        <v>8.728140394088671</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>678412576</v>
+        <v>955556464</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TS-5-teta500</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G109" t="n">
-        <v>2.105295566502463</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1225355776</v>
+        <v>688529966</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3613,114 +3613,114 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F110" t="n">
         <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>14.3</v>
+        <v>2.105295566502463</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>678356317</v>
+        <v>678412576</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>МИНСК_МПСЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.2050492610837438</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>2.820197044334975</v>
+        <v>2.105295566502463</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>696780797</v>
+        <v>1225355776</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1.023399014778325</v>
+        <v>4.1</v>
       </c>
       <c r="F112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>7.116995073891625</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>696778574</v>
+        <v>678356317</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>МИНСК_МПСЦ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.2050492610837438</v>
       </c>
       <c r="F113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>2.175492610837439</v>
+        <v>2.820197044334975</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>696778985</v>
+        <v>1225355776</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3729,27 +3729,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.8882389162561577</v>
       </c>
       <c r="F114" t="n">
         <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>3.783661740558292</v>
+        <v>6.441194581280788</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>756835534</v>
+        <v>696778574</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3758,12 +3758,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3778,7 +3778,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>696778824</v>
+        <v>696778985</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3787,27 +3787,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.625</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F116" t="n">
         <v>5</v>
       </c>
       <c r="G116" t="n">
-        <v>5.125</v>
+        <v>3.783661740558292</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>678360471</v>
+        <v>696778824</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3816,27 +3816,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.625</v>
       </c>
       <c r="F117" t="n">
         <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>2.350985221674877</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>678320094</v>
+        <v>696780797</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3845,27 +3845,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.023399014778325</v>
       </c>
       <c r="F118" t="n">
         <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>2.175492610837439</v>
+        <v>7.116995073891625</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>677883754</v>
+        <v>990330535</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3874,27 +3874,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
       </c>
       <c r="G119" t="n">
-        <v>2.350985221674877</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>677883754</v>
+        <v>677942539</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3903,27 +3903,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>0.375</v>
       </c>
       <c r="F120" t="n">
         <v>5</v>
       </c>
       <c r="G120" t="n">
-        <v>12</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>677926124</v>
+        <v>678360471</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3932,22 +3932,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.3801313628899836</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F121" t="n">
         <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>3.900656814449918</v>
+        <v>2.350985221674877</v>
       </c>
     </row>
     <row r="122">
@@ -3981,7 +3981,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>677942539</v>
+        <v>677953003</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3990,27 +3990,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>3.875</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>990330535</v>
+        <v>677926124</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4019,27 +4019,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0.3801313628899836</v>
       </c>
       <c r="F124" t="n">
         <v>5</v>
       </c>
       <c r="G124" t="n">
-        <v>7</v>
+        <v>3.900656814449918</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1225355776</v>
+        <v>678320094</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4048,27 +4048,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.8882389162561577</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F125" t="n">
         <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>6.441194581280788</v>
+        <v>2.175492610837439</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>677953003</v>
+        <v>677883754</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4077,85 +4077,85 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
         <v>5</v>
       </c>
       <c r="G126" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>756839391</v>
+        <v>756835534</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E127" t="n">
         <v>0.03509852216748768</v>
       </c>
       <c r="F127" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>2.245689655172414</v>
+        <v>2.175492610837439</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>677981434</v>
+        <v>677883754</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.75</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F128" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>7.25</v>
+        <v>2.350985221674877</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>679839793</v>
+        <v>696780797</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4164,22 +4164,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
         <v>7</v>
       </c>
       <c r="G129" t="n">
-        <v>3.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
@@ -4213,7 +4213,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>756835534</v>
+        <v>677883754</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4222,27 +4222,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.1900656814449918</v>
       </c>
       <c r="F131" t="n">
         <v>7</v>
       </c>
       <c r="G131" t="n">
-        <v>2.245689655172414</v>
+        <v>3.330459770114943</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>696780797</v>
+        <v>696778824</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4251,27 +4251,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0.05233990147783251</v>
       </c>
       <c r="F132" t="n">
         <v>7</v>
       </c>
       <c r="G132" t="n">
-        <v>9</v>
+        <v>2.366379310344827</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>677883754</v>
+        <v>955553922</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4280,27 +4280,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>0.7134646962233169</v>
       </c>
       <c r="F133" t="n">
         <v>7</v>
       </c>
       <c r="G133" t="n">
-        <v>16</v>
+        <v>6.994252873563218</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>677883754</v>
+        <v>756839391</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4358,7 +4358,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1225355776</v>
+        <v>677981434</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4367,27 +4367,27 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.8081896551724138</v>
+        <v>0.75</v>
       </c>
       <c r="F136" t="n">
         <v>7</v>
       </c>
       <c r="G136" t="n">
-        <v>7.657327586206897</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>696778824</v>
+        <v>677883754</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4396,27 +4396,27 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.05233990147783251</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
         <v>7</v>
       </c>
       <c r="G137" t="n">
-        <v>2.366379310344827</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>678360471</v>
+        <v>1225355776</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4425,27 +4425,27 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.25</v>
+        <v>0.8081896551724138</v>
       </c>
       <c r="F138" t="n">
         <v>7</v>
       </c>
       <c r="G138" t="n">
-        <v>3.75</v>
+        <v>7.657327586206897</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>955553922</v>
+        <v>679839793</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4454,27 +4454,27 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.7134646962233169</v>
+        <v>0.25</v>
       </c>
       <c r="F139" t="n">
         <v>7</v>
       </c>
       <c r="G139" t="n">
-        <v>6.994252873563218</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>696778574</v>
+        <v>756835534</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4483,12 +4483,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -4503,65 +4503,65 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>678274222</v>
+        <v>678360471</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>AQ300</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
       <c r="F141" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G141" t="n">
-        <v>2.210591133004926</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>735729922</v>
+        <v>696778574</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G142" t="n">
-        <v>5</v>
+        <v>2.245689655172414</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>678034901</v>
+        <v>735729922</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4570,22 +4570,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>AQgel300</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F143" t="n">
         <v>6</v>
       </c>
       <c r="G143" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -4648,7 +4648,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1225355776</v>
+        <v>678274222</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4657,80 +4657,80 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ300</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F146" t="n">
         <v>6</v>
       </c>
       <c r="G146" t="n">
-        <v>5</v>
+        <v>2.210591133004926</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>678344590</v>
+        <v>1225355776</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.5</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G147" t="n">
-        <v>2.070197044334976</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>955546493</v>
+        <v>678034901</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>AQgel300</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.25</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G148" t="n">
-        <v>2.713464696223317</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="149">
@@ -4764,7 +4764,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1225355776</v>
+        <v>955546493</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4773,27 +4773,27 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4.05</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F150" t="n">
         <v>2</v>
       </c>
       <c r="G150" t="n">
-        <v>10.1</v>
+        <v>2.713464696223317</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>678366074</v>
+        <v>1225355776</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4802,27 +4802,27 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.25</v>
+        <v>4.05</v>
       </c>
       <c r="F151" t="n">
         <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>2.5</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>696778574</v>
+        <v>678366074</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4831,27 +4831,27 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F152" t="n">
         <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>677981434</v>
+        <v>1364320919</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4860,109 +4860,109 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F153" t="n">
         <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>3.333333333333333</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>678356317</v>
+        <v>678344590</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E154" t="n">
         <v>0.03509852216748768</v>
       </c>
       <c r="F154" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>2.45628078817734</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1225355776</v>
+        <v>677981434</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F155" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>15</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>678412576</v>
+        <v>696778574</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G156" t="n">
-        <v>2.45628078817734</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -4996,350 +4996,350 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>696778824</v>
+        <v>678356317</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ОМСК_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E158" t="n">
         <v>0.03509852216748768</v>
       </c>
       <c r="F158" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G158" t="n">
-        <v>2.280788177339901</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1225355776</v>
+        <v>678412576</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1.25</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F159" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G159" t="n">
-        <v>10.75</v>
+        <v>2.45628078817734</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>688529966</v>
+        <v>1225355776</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G160" t="n">
-        <v>2.245689655172414</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>678356317</v>
+        <v>1363095178</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОМСК_РФЦ</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>TEPOLV-6</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G161" t="n">
-        <v>2.070197044334976</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1363091992</v>
+        <v>696778824</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОМСК_РФЦ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TEPOLV-1.5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G162" t="n">
-        <v>2.140394088669951</v>
+        <v>2.280788177339901</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1364320919</v>
+        <v>756839391</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>955546493</v>
+        <v>1225355776</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.375</v>
+        <v>1.25</v>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G164" t="n">
-        <v>2.75</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>756839133</v>
+        <v>688529966</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F165" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G165" t="n">
-        <v>3.5</v>
+        <v>2.245689655172414</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>735663069</v>
+        <v>955546493</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.375</v>
       </c>
       <c r="F166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>2.105295566502463</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>756839391</v>
+        <v>678356317</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>5</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>955556860</v>
+        <v>1363091992</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TS-1-teta100</t>
+          <t>TEPOLV-1.5</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.25</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>2.75</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>678412576</v>
+        <v>1364320919</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.1403940886699507</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>2.421182266009852</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -5373,7 +5373,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>688529966</v>
+        <v>756839133</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5382,312 +5382,312 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F171" t="n">
         <v>3</v>
       </c>
       <c r="G171" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1225355776</v>
+        <v>955556860</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-1-teta100</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2.360309641097818</v>
+        <v>0.25</v>
       </c>
       <c r="F172" t="n">
         <v>3</v>
       </c>
       <c r="G172" t="n">
-        <v>9.080928923293454</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>756839133</v>
+        <v>756839391</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
         <v>3</v>
       </c>
       <c r="G173" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>670494599</v>
+        <v>678412576</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ED-20-PEPA10</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0.1403940886699507</v>
       </c>
       <c r="F174" t="n">
         <v>3</v>
       </c>
       <c r="G174" t="n">
-        <v>5</v>
+        <v>2.421182266009852</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>678366074</v>
+        <v>735663069</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F175" t="n">
         <v>3</v>
       </c>
       <c r="G175" t="n">
-        <v>4.25</v>
+        <v>2.105295566502463</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>678412576</v>
+        <v>688529966</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ростов_на_Дону_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
       <c r="F176" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G176" t="n">
-        <v>2.140394088669951</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>735729922</v>
+        <v>756839133</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ростов_на_Дону_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G177" t="n">
-        <v>3.333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>677953003</v>
+        <v>670494599</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>ED-20-PEPA10</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E178" t="n">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>955553922</v>
+        <v>1225355776</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.07019704433497537</v>
+        <v>2.360309641097818</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G179" t="n">
-        <v>2.140394088669951</v>
+        <v>9.080928923293454</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>677942539</v>
+        <v>678366074</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G180" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>756839133</v>
+        <v>735729922</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F181" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G181" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="182">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5713,15 +5713,15 @@
         <v>0.03509852216748768</v>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G182" t="n">
-        <v>2.070197044334976</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>696778985</v>
+        <v>756839133</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5730,27 +5730,27 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
         <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>990330535</v>
+        <v>955553922</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5759,27 +5759,27 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F184" t="n">
         <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>4</v>
+        <v>2.140394088669951</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1225355776</v>
+        <v>677953003</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5788,27 +5788,27 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
         <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>678274222</v>
+        <v>677942539</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5817,27 +5817,27 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>AQ300</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F186" t="n">
         <v>2</v>
       </c>
       <c r="G186" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>756839391</v>
+        <v>955554865</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5846,27 +5846,27 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
       <c r="F187" t="n">
         <v>2</v>
       </c>
       <c r="G187" t="n">
-        <v>2.070197044334976</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>679839793</v>
+        <v>677926124</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5875,27 +5875,27 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F188" t="n">
         <v>2</v>
       </c>
       <c r="G188" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>756835534</v>
+        <v>990330535</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5904,27 +5904,27 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>677926124</v>
+        <v>678274222</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5933,27 +5933,27 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>AQ300</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="F190" t="n">
         <v>2</v>
       </c>
       <c r="G190" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>696778574</v>
+        <v>678320094</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5962,12 +5962,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -5982,7 +5982,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>955554865</v>
+        <v>1742838765</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5991,27 +5991,27 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.25</v>
+        <v>0.9375</v>
       </c>
       <c r="F192" t="n">
         <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>2.5</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>677883754</v>
+        <v>756839391</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -6020,27 +6020,27 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
       </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1742838765</v>
+        <v>1225355776</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -6049,27 +6049,27 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="F194" t="n">
         <v>2</v>
       </c>
       <c r="G194" t="n">
-        <v>4.333333333333334</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>678320094</v>
+        <v>696778574</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -6078,12 +6078,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6098,529 +6098,529 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>955546493</v>
+        <v>696778985</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E196" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F196" t="n">
         <v>2</v>
       </c>
-      <c r="F196" t="n">
-        <v>3</v>
-      </c>
       <c r="G196" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>678366074</v>
+        <v>696778824</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.1403940886699507</v>
+        <v>0.25</v>
       </c>
       <c r="F197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G197" t="n">
-        <v>2.421182266009852</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>756839391</v>
+        <v>679839793</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G198" t="n">
-        <v>2.210591133004926</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1225355776</v>
+        <v>677883754</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E199" t="n">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1594235812</v>
+        <v>678412576</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>735729922</v>
+        <v>756835534</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G201" t="n">
-        <v>2.070197044334976</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>677926124</v>
+        <v>955546493</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G202" t="n">
-        <v>2.75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>678320094</v>
+        <v>678366074</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>0.1403940886699507</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G203" t="n">
-        <v>3</v>
+        <v>2.421182266009852</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>990330535</v>
+        <v>756839391</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1.25</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G204" t="n">
-        <v>3.25</v>
+        <v>2.210591133004926</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>677942539</v>
+        <v>1594235812</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>696778824</v>
+        <v>678320094</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>677953003</v>
+        <v>1364320919</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>696778985</v>
+        <v>756835534</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 с отвердителем ТЭТА, 1,1 кг (для ремонта, строительства)</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F208" t="n">
         <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>756838720</v>
+        <v>735729922</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>TETA-1000</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>2.035098522167488</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1225355776</v>
+        <v>677926124</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>3.666666666666667</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>756835534</v>
+        <v>677883754</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F211" t="n">
         <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>955546493</v>
+        <v>677942539</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для столешниц, слэбов, объемных заливок 3 кг MONOLIT (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.5</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>2.356732348111658</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>677883754</v>
+        <v>1225355776</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>735729922</v>
+        <v>756839391</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -6629,22 +6629,22 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.25</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>2.356732348111658</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="215">
@@ -6707,79 +6707,79 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>735663069</v>
+        <v>677883754</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>2.035098522167488</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>677981434</v>
+        <v>990330535</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>2.666666666666667</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>677926124</v>
+        <v>677953003</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -6794,50 +6794,50 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1364320919</v>
+        <v>1225355776</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>2.035098522167488</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -6852,21 +6852,21 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>955554865</v>
+        <v>756838720</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>TETA-1000</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -6881,181 +6881,181 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>678366074</v>
+        <v>756835534</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
         <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>2.070197044334976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>955553922</v>
+        <v>735729922</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.25</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>2.25</v>
+        <v>2.356732348111658</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>696778985</v>
+        <v>696778824</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>3</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>696778824</v>
+        <v>696778985</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>696780797</v>
+        <v>677942539</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="F227" t="n">
         <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>2.333333333333333</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>756835534</v>
+        <v>955546493</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2</v>
+        <v>0.3567323481116584</v>
       </c>
       <c r="F228" t="n">
         <v>1</v>
       </c>
       <c r="G228" t="n">
-        <v>4</v>
+        <v>2.356732348111658</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>756839391</v>
+        <v>1364320919</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -7064,418 +7064,418 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>3</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1742838765</v>
+        <v>1225355776</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="F230" t="n">
         <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>6</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>678366074</v>
+        <v>955553922</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>2.035098522167488</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>677942539</v>
+        <v>955554865</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F232" t="n">
         <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>2.958333333333333</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>677942539</v>
+        <v>696778824</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для столешниц, слэбов и объемных заливок MONOLIT 3 кг (прозрачная, жидкая, толстослойная, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>696778824</v>
+        <v>756835534</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 с отвердителем ТЭТА, 1,1 кг (для ремонта, строительства)</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F234" t="n">
         <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>2.916666666666667</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>677953003</v>
+        <v>677883754</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="F235" t="n">
         <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>756835534</v>
+        <v>696778985</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F236" t="n">
         <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>2.928571428571428</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
         <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>4.928571428571428</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>677981434</v>
+        <v>678366074</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1.666666666666667</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F238" t="n">
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>3.666666666666667</v>
+        <v>2.070197044334976</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>696778985</v>
+        <v>677926124</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.3598111658456486</v>
+        <v>1</v>
       </c>
       <c r="F239" t="n">
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>2.359811165845648</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>677988274</v>
+        <v>1742838765</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F240" t="n">
         <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1364320919</v>
+        <v>735663069</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F241" t="n">
         <v>1</v>
       </c>
       <c r="G241" t="n">
-        <v>2.25</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>990330535</v>
+        <v>677981434</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>2.1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F242" t="n">
         <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>4.1</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>756839391</v>
+        <v>696780797</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -7490,36 +7490,36 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>677883754</v>
+        <v>756835534</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="F244" t="n">
         <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>677883754</v>
+        <v>677953003</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -7528,12 +7528,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -7548,7 +7548,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>696778574</v>
+        <v>696778824</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -7557,27 +7557,27 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.25</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F246" t="n">
         <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>2.25</v>
+        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>678320094</v>
+        <v>696778574</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -7586,27 +7586,27 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.6339285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="F247" t="n">
         <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>2.633928571428571</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>683599056</v>
+        <v>1742838765</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -7615,27 +7615,27 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.03509852216748768</v>
+        <v>3.7</v>
       </c>
       <c r="F248" t="n">
         <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>2.035098522167488</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>696780797</v>
+        <v>955546493</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -7644,22 +7644,22 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.5</v>
       </c>
       <c r="F249" t="n">
         <v>1</v>
       </c>
       <c r="G249" t="n">
-        <v>2.035098522167488</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="250">
@@ -7682,18 +7682,18 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.2589285714285714</v>
       </c>
       <c r="F250" t="n">
         <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>2.261904761904762</v>
+        <v>2.258928571428571</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>955546493</v>
+        <v>677981434</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -7702,27 +7702,27 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.5833333333333334</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="F251" t="n">
         <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>2.583333333333333</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>735663069</v>
+        <v>678366074</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -7731,12 +7731,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -7751,7 +7751,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>735729922</v>
+        <v>678360471</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -7760,27 +7760,27 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F253" t="n">
         <v>1</v>
       </c>
       <c r="G253" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>756839133</v>
+        <v>1225355776</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -7789,27 +7789,27 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.1723111658456486</v>
+        <v>2.71875</v>
       </c>
       <c r="F254" t="n">
         <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>2.172311165845648</v>
+        <v>4.71875</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>677926124</v>
+        <v>683599056</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -7818,717 +7818,1239 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TS-5</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F255" t="n">
         <v>1</v>
       </c>
       <c r="G255" t="n">
-        <v>2.25</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>678366074</v>
+        <v>696778985</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.3378489326765189</v>
       </c>
       <c r="F256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G256" t="n">
-        <v>2.210591133004926</v>
+        <v>2.337848932676519</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>955546493</v>
+        <v>677942539</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для столешниц, слэбов и объемных заливок MONOLIT 3 кг (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.07019704433497537</v>
+        <v>4</v>
       </c>
       <c r="F257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
-        <v>2.210591133004926</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>756839391</v>
+        <v>696780797</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G258" t="n">
-        <v>4.25</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>696778824</v>
+        <v>678320094</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="F259" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G259" t="n">
-        <v>2.350985221674877</v>
+        <v>2.557142857142857</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>696780797</v>
+        <v>990330535</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.958333333333333</v>
       </c>
       <c r="F260" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G260" t="n">
-        <v>2.175492610837439</v>
+        <v>3.958333333333333</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>679839793</v>
+        <v>677942539</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="F261" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>2.175492610837439</v>
+        <v>2.958333333333333</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>678356317</v>
+        <v>735663069</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F262" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G262" t="n">
-        <v>7</v>
+        <v>2.035098522167488</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>677883754</v>
+        <v>735729922</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
       <c r="F263" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G263" t="n">
-        <v>2.175492610837439</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>677926124</v>
+        <v>1364320919</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.25</v>
       </c>
       <c r="F264" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>2.950328407224959</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>677883754</v>
+        <v>955556860</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>TS-1-teta100</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="F265" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G265" t="n">
-        <v>12</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>696778985</v>
+        <v>756835534</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F266" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G266" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>677981434</v>
+        <v>677926124</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F267" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G267" t="n">
-        <v>7</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1225355776</v>
+        <v>756839133</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.333333333333333</v>
+        <v>0.1723111658456486</v>
       </c>
       <c r="F268" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G268" t="n">
-        <v>23.66666666666666</v>
+        <v>2.172311165845648</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>696778574</v>
+        <v>677883754</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
       <c r="F269" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>2.175492610837439</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>677953003</v>
+        <v>756839391</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.5</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="F270" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G270" t="n">
-        <v>4.5</v>
+        <v>2.291666666666667</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>756839133</v>
+        <v>677883754</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>2.350985221674877</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>677981434</v>
+        <v>677942539</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для столешниц, слэбов, объемных заливок 3 кг MONOLIT (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E272" t="n">
         <v>1</v>
       </c>
       <c r="F272" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G272" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>990330535</v>
+        <v>677988274</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.8342364532019705</v>
+        <v>0.5</v>
       </c>
       <c r="F273" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G273" t="n">
-        <v>37.87216748768473</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1225355776</v>
+        <v>955546493</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1.461576354679803</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F274" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G274" t="n">
-        <v>64.84778325123153</v>
+        <v>2.210591133004926</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>756835534</v>
+        <v>756839391</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F275" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G275" t="n">
-        <v>12.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>735729922</v>
+        <v>678366074</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.5</v>
+        <v>0.07019704433497537</v>
       </c>
       <c r="F276" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G276" t="n">
-        <v>23.5</v>
+        <v>2.210591133004926</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>677883754</v>
+        <v>678356317</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G277" t="n">
-        <v>12.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>756839133</v>
+        <v>677883754</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2</v>
+        <v>0.03509852216748768</v>
       </c>
       <c r="F278" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G278" t="n">
-        <v>88</v>
+        <v>2.175492610837439</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>2</v>
+      </c>
+      <c r="F279" t="n">
+        <v>5</v>
+      </c>
+      <c r="G279" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+      <c r="F280" t="n">
+        <v>5</v>
+      </c>
+      <c r="G280" t="n">
+        <v>2.350985221674877</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>677926124</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>MN1500</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>0.1900656814449918</v>
+      </c>
+      <c r="F281" t="n">
+        <v>5</v>
+      </c>
+      <c r="G281" t="n">
+        <v>2.950328407224959</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>696780797</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>EPO3D-15</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F282" t="n">
+        <v>5</v>
+      </c>
+      <c r="G282" t="n">
+        <v>2.175492610837439</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>679839793</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>AQ6000</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F283" t="n">
+        <v>5</v>
+      </c>
+      <c r="G283" t="n">
+        <v>2.175492610837439</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>696778824</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>EPO3D-750</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+      <c r="F284" t="n">
+        <v>5</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2.350985221674877</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>677953003</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>MN15000</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>5</v>
+      </c>
+      <c r="G285" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>696778574</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>EPO3D-7,5</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+      <c r="F286" t="n">
+        <v>5</v>
+      </c>
+      <c r="G286" t="n">
+        <v>2.175492610837439</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F287" t="n">
+        <v>5</v>
+      </c>
+      <c r="G287" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F288" t="n">
+        <v>5</v>
+      </c>
+      <c r="G288" t="n">
+        <v>23.66666666666666</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>696778985</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>EPO3D-1.5</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+      <c r="F289" t="n">
+        <v>5</v>
+      </c>
+      <c r="G289" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>990330535</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>naborgalaxy</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>0.8342364532019705</v>
+      </c>
+      <c r="F290" t="n">
+        <v>43</v>
+      </c>
+      <c r="G290" t="n">
+        <v>37.87216748768473</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>1</v>
+      </c>
+      <c r="F291" t="n">
+        <v>43</v>
+      </c>
+      <c r="G291" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>756835534</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>ED-20-TETA1</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F292" t="n">
+        <v>43</v>
+      </c>
+      <c r="G292" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F293" t="n">
+        <v>43</v>
+      </c>
+      <c r="G293" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>1.461576354679803</v>
+      </c>
+      <c r="F294" t="n">
+        <v>43</v>
+      </c>
+      <c r="G294" t="n">
+        <v>64.84778325123153</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>2</v>
+      </c>
+      <c r="F295" t="n">
+        <v>43</v>
+      </c>
+      <c r="G295" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>735729922</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>PEPA-500</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F296" t="n">
+        <v>43</v>
+      </c>
+      <c r="G296" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
         <v>756839391</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B297" t="inlineStr">
         <is>
           <t>ХОРУГВИНО_РФЦ</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C297" t="inlineStr">
         <is>
           <t>ED-20-TETA5</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
+      <c r="D297" t="inlineStr">
         <is>
           <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
-      <c r="E279" t="n">
+      <c r="E297" t="n">
         <v>0.07019704433497537</v>
       </c>
-      <c r="F279" t="n">
+      <c r="F297" t="n">
         <v>2</v>
       </c>
-      <c r="G279" t="n">
+      <c r="G297" t="n">
         <v>2.140394088669951</v>
       </c>
     </row>
